--- a/out.xlsx
+++ b/out.xlsx
@@ -1,50 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="550" windowWidth="18880" windowHeight="6740"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="debug_test.json" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>branch-name</t>
-  </si>
-  <si>
-    <t>date-Last-Analysis</t>
-  </si>
-  <si>
-    <t>unresolved-issues</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>debug_test</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>LastAnalysisDate</t>
+  </si>
+  <si>
     <t>2022-03-17T12:06:21+0100</t>
   </si>
   <si>
-    <t>{'total': 2, 'issues-details': {'category': {'code_smell': 2, 'Bug': 0, 'vulerability': 0, 'security_hostpost': 0}, 'severity': {'MAJOR': 0, 'MINOR': 1, 'INFO': 0, 'BLOCKER': 0, 'CRITICAL': 1}}}</t>
-  </si>
-  <si>
-    <t>master</t>
-  </si>
-  <si>
-    <t>{'total': 3, 'issues-details': {'category': {'code_smell': 3, 'Bug': 0, 'vulerability': 0, 'security_hostpost': 0}, 'severity': {'MAJOR': 1, 'MINOR': 0, 'INFO': 0, 'BLOCKER': 0, 'CRITICAL': 2}}}</t>
+    <t>Summary Information</t>
+  </si>
+  <si>
+    <t>code_smell</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>vulerability</t>
+  </si>
+  <si>
+    <t>security_hostpost</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>MAJOR</t>
+  </si>
+  <si>
+    <t>MINOR</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>BLOCKER</t>
+  </si>
+  <si>
+    <t>CRITICAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +78,45 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDB39A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D964"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCF2A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -93,10 +146,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -104,11 +166,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -396,60 +453,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="11.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>